--- a/spreadsheet/macrofree/waf_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.ja.xlsx
@@ -34040,7 +34040,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J651" s="13" t="n"/>
+      <c r="J651" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+        </is>
+      </c>
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
@@ -34091,7 +34095,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J652" s="13" t="n"/>
+      <c r="J652" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+        </is>
+      </c>
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
@@ -34197,7 +34205,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J654" s="13" t="n"/>
+      <c r="J654" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+        </is>
+      </c>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
@@ -34633,7 +34645,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J662" s="13" t="n"/>
+      <c r="J662" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
+        </is>
+      </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
@@ -34904,7 +34920,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J667" s="13" t="n"/>
+      <c r="J667" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
@@ -35061,7 +35081,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J670" s="13" t="n"/>
+      <c r="J670" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
@@ -35112,7 +35136,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J671" s="13" t="n"/>
+      <c r="J671" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-route-server/</t>
+        </is>
+      </c>
       <c r="K671" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
@@ -35277,7 +35305,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J674" s="13" t="n"/>
+      <c r="J674" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K674" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
@@ -35332,7 +35364,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J675" s="13" t="n"/>
+      <c r="J675" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K675" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
@@ -35387,7 +35423,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J676" s="13" t="n"/>
+      <c r="J676" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+        </is>
+      </c>
       <c r="K676" s="19" t="inlineStr">
         <is>
           <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
@@ -35442,7 +35482,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="13" t="n"/>
+      <c r="J677" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
@@ -35886,7 +35930,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
@@ -35992,7 +36040,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J687" s="13" t="n"/>
+      <c r="J687" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
@@ -36043,7 +36095,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="13" t="n"/>
+      <c r="J688" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-bastion/</t>
+        </is>
+      </c>
       <c r="K688" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
@@ -36318,7 +36374,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J693" s="13" t="n"/>
+      <c r="J693" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
@@ -36424,7 +36484,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J695" s="13" t="n"/>
+      <c r="J695" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-policy/</t>
+        </is>
+      </c>
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
@@ -36648,7 +36712,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J699" s="13" t="n"/>
+      <c r="J699" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K699" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
@@ -36703,7 +36771,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J700" s="13" t="n"/>
+      <c r="J700" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K700" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
@@ -37320,7 +37392,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J711" s="13" t="n"/>
+      <c r="J711" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
@@ -37426,7 +37502,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J713" s="13" t="n"/>
+      <c r="J713" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
@@ -37968,7 +38048,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J723" s="13" t="n"/>
+      <c r="J723" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K723" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.dnsSettings.enableProxy == true) | distinct id,compliant</t>
@@ -38023,7 +38107,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J724" s="13" t="n"/>
+      <c r="J724" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K724" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.sku.tier == 'Premium') | distinct id,compliant</t>
@@ -38133,7 +38221,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J726" s="13" t="n"/>
+      <c r="J726" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K726" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/firewallpolicies' | extend compliant = (properties.intrusionDetection.mode == 'Deny') | project id, compliant</t>
@@ -38353,7 +38445,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J730" s="13" t="n"/>
+      <c r="J730" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-firewall/</t>
+        </is>
+      </c>
       <c r="K730" s="19" t="inlineStr">
         <is>
           <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureFirewallSubnet' | extend compliant = (subnetPrefixLength == 26) | distinct id, compliant</t>
@@ -38408,7 +38504,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J731" s="13" t="n"/>
+      <c r="J731" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-firewall-manager/</t>
+        </is>
+      </c>
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
@@ -38510,7 +38610,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J733" s="13" t="n"/>
+      <c r="J733" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
@@ -38561,7 +38665,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J734" s="13" t="n"/>
+      <c r="J734" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-to-azure-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
@@ -38714,7 +38822,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J737" s="13" t="n"/>
+      <c r="J737" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-application-gateway/</t>
+        </is>
+      </c>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
@@ -38765,7 +38877,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J738" s="13" t="n"/>
+      <c r="J738" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
@@ -38816,7 +38932,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J739" s="13" t="n"/>
+      <c r="J739" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-700t00/</t>
+        </is>
+      </c>
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
@@ -38867,7 +38987,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J740" s="13" t="n"/>
+      <c r="J740" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/courses/az-104t00/</t>
+        </is>
+      </c>
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
@@ -39531,7 +39655,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J752" s="13" t="n"/>
+      <c r="J752" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
@@ -39641,7 +39769,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J754" s="13" t="n"/>
+      <c r="J754" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
@@ -39692,7 +39824,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J755" s="13" t="n"/>
+      <c r="J755" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
@@ -39743,7 +39879,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J756" s="13" t="n"/>
+      <c r="J756" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
@@ -39794,7 +39934,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J757" s="13" t="n"/>
+      <c r="J757" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
@@ -39845,7 +39989,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J758" s="13" t="n"/>
+      <c r="J758" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
@@ -39896,7 +40044,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J759" s="13" t="n"/>
+      <c r="J759" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
@@ -40897,7 +41049,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J778" s="13" t="n"/>
+      <c r="J778" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-azure-monitor/</t>
+        </is>
+      </c>
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
@@ -40948,7 +41104,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J779" s="13" t="n"/>
+      <c r="J779" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/incident-response-with-alerting-on-azure/</t>
+        </is>
+      </c>
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
@@ -40999,7 +41159,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J780" s="13" t="n"/>
+      <c r="J780" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-automation-devops/</t>
+        </is>
+      </c>
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
@@ -41050,7 +41214,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J781" s="13" t="n"/>
+      <c r="J781" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
@@ -41156,7 +41324,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J783" s="13" t="n"/>
+      <c r="J783" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
@@ -41207,7 +41379,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J784" s="13" t="n"/>
+      <c r="J784" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-infrastructure-with-site-recovery/</t>
+        </is>
+      </c>
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
@@ -41258,7 +41434,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J785" s="13" t="n"/>
+      <c r="J785" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/design-solution-for-backup-disaster-recovery/</t>
+        </is>
+      </c>
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
@@ -41309,7 +41489,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J786" s="13" t="n"/>
+      <c r="J786" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/capture-application-logs-app-service/</t>
+        </is>
+      </c>
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
@@ -41360,7 +41544,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J787" s="13" t="n"/>
+      <c r="J787" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/paths/sc-200-connect-logs-to-azure-sentinel/</t>
+        </is>
+      </c>
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
@@ -42588,7 +42776,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J811" s="13" t="n"/>
+      <c r="J811" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/training/modules/implement-azure-key-vault/</t>
+        </is>
+      </c>
       <c r="K811" s="19" t="n"/>
       <c r="L811" s="19" t="inlineStr">
         <is>
